--- a/documentation/tests/test-contact-us-page.xlsx
+++ b/documentation/tests/test-contact-us-page.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="65">
   <si>
     <t xml:space="preserve">Test  ID</t>
   </si>
@@ -109,35 +109,7 @@
     <t xml:space="preserve">Click “Submit Query” button</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Error : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”Please fill out this field” on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ‘My name’ field</t>
-    </r>
+    <t xml:space="preserve">Error : ”Please fill out this field” on ‘My name’ field</t>
   </si>
   <si>
     <t xml:space="preserve">Fill out ‘My name’ field</t>
@@ -149,35 +121,7 @@
     <t xml:space="preserve">Placeholder text in ‘My name’ field replaced with “Liz”</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Error : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”Please fill out this field” on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ‘My email address’ field</t>
-    </r>
+    <t xml:space="preserve">Error : ”Please fill out this field” on ‘My email address’ field</t>
   </si>
   <si>
     <t xml:space="preserve">Fill out ‘My email address’ field</t>
@@ -189,35 +133,7 @@
     <t xml:space="preserve">Placeholder text in ‘My email address’ field replaced with “zil.conway@gmail.com”</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Error : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”Please fill out this field” on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ‘Type query here’ field</t>
-    </r>
+    <t xml:space="preserve">Error : ”Please fill out this field” on ‘Type query here’ field</t>
   </si>
   <si>
     <t xml:space="preserve">Fill out ‘Type query here’ field</t>
@@ -277,97 +193,13 @@
     <t xml:space="preserve">Chrome</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Error : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”Please fill in this field” on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ‘My name’ field</t>
-    </r>
+    <t xml:space="preserve">Error : ”Please fill in this field” on ‘My name’ field</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Error : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”Please fill in this field” on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ‘My email address’ field</t>
-    </r>
+    <t xml:space="preserve">Error : ”Please fill in this field” on ‘My email address’ field</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Error : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">”Please fill in this field” on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ‘Type query here’ field</t>
-    </r>
+    <t xml:space="preserve">Error : ”Please fill in this field” on ‘Type query here’ field</t>
   </si>
   <si>
     <t xml:space="preserve">Error : Please include an @ in the email address</t>
@@ -396,7 +228,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -441,12 +273,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -598,7 +424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -695,10 +521,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -723,15 +545,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -867,7 +689,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1002,34 +824,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -1040,53 +866,59 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -1096,22 +928,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="n">
@@ -1121,22 +955,24 @@
         <v>29</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
@@ -1144,22 +980,24 @@
         <v>26</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="n">
@@ -1169,22 +1007,24 @@
         <v>33</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
@@ -1192,22 +1032,24 @@
         <v>26</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
@@ -1217,22 +1059,24 @@
         <v>37</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
@@ -1240,22 +1084,24 @@
         <v>26</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -1265,22 +1111,24 @@
         <v>41</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
@@ -1288,20 +1136,22 @@
         <v>29</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
@@ -1311,20 +1161,22 @@
         <v>33</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="25" t="str">
+      <c r="G20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="24" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
@@ -1334,20 +1186,22 @@
         <v>42</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25" t="str">
+      <c r="G21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="24" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="24"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
@@ -1357,20 +1211,22 @@
         <v>43</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25" t="str">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="24"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -1378,18 +1234,20 @@
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25" t="str">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="24" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="24"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
@@ -1397,18 +1255,20 @@
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25" t="str">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="24"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
@@ -1420,20 +1280,22 @@
         <v>29</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="25" t="str">
+      <c r="G25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="24" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="24"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
@@ -1443,20 +1305,22 @@
         <v>33</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25" t="str">
+      <c r="G26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="24" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="24"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
@@ -1466,20 +1330,22 @@
         <v>42</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
@@ -1489,22 +1355,24 @@
         <v>26</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="n">
@@ -1514,20 +1382,22 @@
         <v>29</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
@@ -1537,20 +1407,22 @@
         <v>33</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25" t="str">
+      <c r="G30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
@@ -1560,20 +1432,22 @@
         <v>37</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
@@ -1583,22 +1457,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="n">
@@ -1608,20 +1484,22 @@
         <v>29</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
@@ -1631,20 +1509,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
@@ -1654,20 +1534,22 @@
         <v>37</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
@@ -1677,22 +1559,24 @@
         <v>26</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -1702,22 +1586,24 @@
         <v>52</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
@@ -1728,70 +1614,70 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
       <c r="L40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="43"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="10"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -1856,34 +1742,38 @@
         <v>21</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25" t="str">
+      <c r="G45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="24" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25" t="str">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="24" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21"/>
@@ -1894,53 +1784,59 @@
         <v>23</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25" t="str">
+      <c r="G47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="24" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25" t="str">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="I48" s="24" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25" t="str">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="24" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="n">
@@ -1950,22 +1846,24 @@
         <v>26</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25" t="str">
+      <c r="F50" s="28"/>
+      <c r="G50" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="24" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="n">
@@ -1975,22 +1873,24 @@
         <v>29</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25" t="str">
+      <c r="G51" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="24" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21"/>
@@ -1998,22 +1898,24 @@
         <v>26</v>
       </c>
       <c r="C52" s="22"/>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25" t="str">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="24" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="n">
@@ -2023,22 +1925,24 @@
         <v>33</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25" t="str">
+      <c r="G53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="24" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
@@ -2046,22 +1950,24 @@
         <v>26</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25" t="str">
+      <c r="F54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="24" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -2071,22 +1977,24 @@
         <v>37</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25" t="str">
+      <c r="G55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="24" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
@@ -2094,22 +2002,24 @@
         <v>26</v>
       </c>
       <c r="C56" s="22"/>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25" t="str">
+      <c r="G56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="24" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="n">
@@ -2119,22 +2029,24 @@
         <v>41</v>
       </c>
       <c r="C57" s="22"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25" t="str">
+      <c r="G57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="24" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -2142,20 +2054,22 @@
         <v>29</v>
       </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="25" t="str">
+      <c r="G58" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="24" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="24"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
@@ -2165,20 +2079,22 @@
         <v>33</v>
       </c>
       <c r="C59" s="22"/>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="25" t="str">
+      <c r="G59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="24" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="24"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
@@ -2188,20 +2104,22 @@
         <v>42</v>
       </c>
       <c r="C60" s="22"/>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="25" t="str">
+      <c r="G60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="24" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="24"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
@@ -2211,20 +2129,22 @@
         <v>43</v>
       </c>
       <c r="C61" s="22"/>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="25" t="str">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="24" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="24"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
@@ -2232,18 +2152,20 @@
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="31"/>
+      <c r="E62" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="25" t="str">
+      <c r="F62" s="26"/>
+      <c r="G62" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="24" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="24"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
@@ -2251,18 +2173,20 @@
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="31"/>
+      <c r="E63" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="25" t="str">
+      <c r="F63" s="26"/>
+      <c r="G63" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="24" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="24"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
     </row>
@@ -2274,20 +2198,22 @@
         <v>29</v>
       </c>
       <c r="C64" s="22"/>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="25" t="str">
+      <c r="G64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="24" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="24"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
@@ -2297,20 +2223,22 @@
         <v>33</v>
       </c>
       <c r="C65" s="22"/>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="25" t="str">
+      <c r="G65" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="24" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="24"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
@@ -2320,20 +2248,22 @@
         <v>42</v>
       </c>
       <c r="C66" s="22"/>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="15"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="25" t="str">
+      <c r="G66" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="24" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="24"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
@@ -2343,22 +2273,24 @@
         <v>26</v>
       </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25" t="str">
+      <c r="F67" s="28"/>
+      <c r="G67" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="24" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="n">
@@ -2368,20 +2300,22 @@
         <v>29</v>
       </c>
       <c r="C68" s="22"/>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F68" s="15"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="25" t="str">
+      <c r="G68" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="24" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="24"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
@@ -2391,20 +2325,22 @@
         <v>33</v>
       </c>
       <c r="C69" s="22"/>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="25" t="str">
+      <c r="G69" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="24" t="str">
         <f aca="false">IF(G69=E69,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J69" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J69" s="24"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
@@ -2414,20 +2350,22 @@
         <v>37</v>
       </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F70" s="15"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="25" t="str">
+      <c r="G70" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="24" t="str">
         <f aca="false">IF(G70=E70,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J70" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J70" s="24"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
@@ -2437,22 +2375,24 @@
         <v>26</v>
       </c>
       <c r="C71" s="22"/>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="25" t="str">
+      <c r="F71" s="28"/>
+      <c r="G71" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="28"/>
+      <c r="I71" s="24" t="str">
         <f aca="false">IF(G71=E71,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="n">
@@ -2462,20 +2402,22 @@
         <v>29</v>
       </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="25" t="str">
+      <c r="G72" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="24" t="str">
         <f aca="false">IF(G72=E72,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J72" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J72" s="24"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
@@ -2485,20 +2427,22 @@
         <v>33</v>
       </c>
       <c r="C73" s="22"/>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="25" t="str">
+      <c r="G73" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="24" t="str">
         <f aca="false">IF(G73=E73,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J73" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J73" s="24"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
@@ -2508,20 +2452,22 @@
         <v>37</v>
       </c>
       <c r="C74" s="22"/>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="25" t="str">
+      <c r="G74" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="24" t="str">
         <f aca="false">IF(G74=E74,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J74" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J74" s="24"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
@@ -2531,22 +2477,24 @@
         <v>26</v>
       </c>
       <c r="C75" s="22"/>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="25" t="str">
+      <c r="F75" s="32"/>
+      <c r="G75" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="24" t="str">
         <f aca="false">IF(G75=E75,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="n">
@@ -2556,22 +2504,24 @@
         <v>52</v>
       </c>
       <c r="C76" s="22"/>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="25" t="str">
+      <c r="G76" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="24" t="str">
         <f aca="false">IF(G76=E76,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J76" s="24"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2952,7 +2902,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3060,10 +3010,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="17" t="s">
         <v>18</v>
       </c>
@@ -3084,34 +3034,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -3122,53 +3076,59 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -3178,22 +3138,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
@@ -3201,22 +3163,24 @@
         <v>62</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="n">
@@ -3226,22 +3190,24 @@
         <v>26</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
@@ -3249,22 +3215,24 @@
         <v>63</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="n">
@@ -3274,22 +3242,24 @@
         <v>26</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21"/>
@@ -3297,22 +3267,24 @@
         <v>42</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="n">
@@ -3322,22 +3294,24 @@
         <v>26</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -3347,22 +3321,24 @@
         <v>41</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
@@ -3370,20 +3346,22 @@
         <v>62</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
@@ -3393,20 +3371,22 @@
         <v>63</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="25" t="str">
+      <c r="G20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="24" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
@@ -3416,20 +3396,22 @@
         <v>42</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25" t="str">
+      <c r="G21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="24" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="24"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
@@ -3439,20 +3421,22 @@
         <v>43</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25" t="str">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="24"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -3460,18 +3444,20 @@
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25" t="str">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="24" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="24"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
@@ -3479,18 +3465,20 @@
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25" t="str">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="24"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
@@ -3502,20 +3490,22 @@
         <v>62</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="25" t="str">
+      <c r="G25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="24" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="24"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
@@ -3525,20 +3515,22 @@
         <v>63</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25" t="str">
+      <c r="G26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="24" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="24"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
@@ -3548,20 +3540,22 @@
         <v>42</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
@@ -3571,22 +3565,24 @@
         <v>26</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="n">
@@ -3596,20 +3592,22 @@
         <v>62</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
@@ -3619,20 +3617,22 @@
         <v>63</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25" t="str">
+      <c r="G30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
@@ -3642,20 +3642,22 @@
         <v>42</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
@@ -3665,22 +3667,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="n">
@@ -3690,20 +3694,22 @@
         <v>62</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
@@ -3713,20 +3719,22 @@
         <v>63</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
@@ -3736,20 +3744,22 @@
         <v>42</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
@@ -3759,22 +3769,24 @@
         <v>26</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -3784,22 +3796,24 @@
         <v>52</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
@@ -3816,64 +3830,64 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
       <c r="L40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="43"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="10"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -3914,10 +3928,10 @@
         <v>16</v>
       </c>
       <c r="H44" s="19"/>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="46"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="17" t="s">
         <v>18</v>
       </c>
@@ -3938,34 +3952,38 @@
         <v>21</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25" t="str">
+      <c r="G45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="24" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25" t="str">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="24" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21"/>
@@ -3976,53 +3994,59 @@
         <v>23</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25" t="str">
+      <c r="G47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="24" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25" t="str">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="I48" s="24" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25" t="str">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="24" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="n">
@@ -4032,22 +4056,24 @@
         <v>26</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25" t="str">
+      <c r="F50" s="28"/>
+      <c r="G50" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="24" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="21"/>
@@ -4055,22 +4081,24 @@
         <v>62</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25" t="str">
+      <c r="G51" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="24" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="n">
@@ -4080,22 +4108,24 @@
         <v>26</v>
       </c>
       <c r="C52" s="22"/>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25" t="str">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="24" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21"/>
@@ -4103,22 +4133,24 @@
         <v>63</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25" t="str">
+      <c r="G53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="24" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="n">
@@ -4128,22 +4160,24 @@
         <v>26</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25" t="str">
+      <c r="F54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="24" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21"/>
@@ -4151,22 +4185,24 @@
         <v>42</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25" t="str">
+      <c r="G55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="24" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
@@ -4176,22 +4212,24 @@
         <v>26</v>
       </c>
       <c r="C56" s="22"/>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25" t="str">
+      <c r="G56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="24" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="n">
@@ -4201,22 +4239,24 @@
         <v>41</v>
       </c>
       <c r="C57" s="22"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25" t="str">
+      <c r="G57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="24" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -4224,20 +4264,22 @@
         <v>62</v>
       </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="25" t="str">
+      <c r="G58" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="24" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="24"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
@@ -4247,20 +4289,22 @@
         <v>63</v>
       </c>
       <c r="C59" s="22"/>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="25" t="str">
+      <c r="G59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="24" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="24"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
@@ -4270,20 +4314,22 @@
         <v>42</v>
       </c>
       <c r="C60" s="22"/>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="25" t="str">
+      <c r="G60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="24" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="24"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
@@ -4293,20 +4339,22 @@
         <v>43</v>
       </c>
       <c r="C61" s="22"/>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="25" t="str">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="24" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="24"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
@@ -4314,18 +4362,20 @@
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="31"/>
+      <c r="E62" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="25" t="str">
+      <c r="F62" s="26"/>
+      <c r="G62" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="24" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="24"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
@@ -4333,18 +4383,20 @@
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="31"/>
+      <c r="E63" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="25" t="str">
+      <c r="F63" s="26"/>
+      <c r="G63" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="24" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="24"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
     </row>
@@ -4356,20 +4408,22 @@
         <v>62</v>
       </c>
       <c r="C64" s="22"/>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="25" t="str">
+      <c r="G64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="24" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="24"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
@@ -4379,20 +4433,22 @@
         <v>63</v>
       </c>
       <c r="C65" s="22"/>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="25" t="str">
+      <c r="G65" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="24" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="24"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
@@ -4402,20 +4458,22 @@
         <v>42</v>
       </c>
       <c r="C66" s="22"/>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="15"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="25" t="str">
+      <c r="G66" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="24" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="24"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
@@ -4425,22 +4483,24 @@
         <v>26</v>
       </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25" t="str">
+      <c r="F67" s="28"/>
+      <c r="G67" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="24" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="n">
@@ -4450,20 +4510,22 @@
         <v>62</v>
       </c>
       <c r="C68" s="22"/>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F68" s="15"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="25" t="str">
+      <c r="G68" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="24" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="24"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
@@ -4473,20 +4535,22 @@
         <v>63</v>
       </c>
       <c r="C69" s="22"/>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="25" t="str">
+      <c r="G69" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="24" t="str">
         <f aca="false">IF(G69=E69,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J69" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J69" s="24"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
@@ -4496,20 +4560,22 @@
         <v>42</v>
       </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F70" s="15"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="25" t="str">
+      <c r="G70" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="24" t="str">
         <f aca="false">IF(G70=E70,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J70" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J70" s="24"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
@@ -4519,22 +4585,24 @@
         <v>26</v>
       </c>
       <c r="C71" s="22"/>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="25" t="str">
+      <c r="F71" s="28"/>
+      <c r="G71" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="28"/>
+      <c r="I71" s="24" t="str">
         <f aca="false">IF(G71=E71,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="n">
@@ -4544,20 +4612,22 @@
         <v>62</v>
       </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="25" t="str">
+      <c r="G72" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="24" t="str">
         <f aca="false">IF(G72=E72,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J72" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J72" s="24"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
@@ -4567,20 +4637,22 @@
         <v>63</v>
       </c>
       <c r="C73" s="22"/>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="25" t="str">
+      <c r="G73" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="24" t="str">
         <f aca="false">IF(G73=E73,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J73" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J73" s="24"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
@@ -4590,20 +4662,22 @@
         <v>42</v>
       </c>
       <c r="C74" s="22"/>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="25" t="str">
+      <c r="G74" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="24" t="str">
         <f aca="false">IF(G74=E74,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J74" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J74" s="24"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
@@ -4613,22 +4687,24 @@
         <v>26</v>
       </c>
       <c r="C75" s="22"/>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="25" t="str">
+      <c r="F75" s="32"/>
+      <c r="G75" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="24" t="str">
         <f aca="false">IF(G75=E75,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="n">
@@ -4638,22 +4714,24 @@
         <v>52</v>
       </c>
       <c r="C76" s="22"/>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="25" t="str">
+      <c r="G76" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="24" t="str">
         <f aca="false">IF(G76=E76,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J76" s="24"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5034,7 +5112,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5142,10 +5220,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="17" t="s">
         <v>18</v>
       </c>
@@ -5166,34 +5244,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -5204,53 +5286,59 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -5260,22 +5348,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="n">
@@ -5285,22 +5375,24 @@
         <v>29</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
@@ -5308,22 +5400,24 @@
         <v>26</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="n">
@@ -5333,22 +5427,24 @@
         <v>33</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
@@ -5356,22 +5452,24 @@
         <v>26</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
@@ -5381,22 +5479,24 @@
         <v>37</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
@@ -5404,22 +5504,24 @@
         <v>26</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -5429,22 +5531,24 @@
         <v>41</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
@@ -5452,20 +5556,22 @@
         <v>29</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
@@ -5475,20 +5581,22 @@
         <v>33</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="25" t="str">
+      <c r="G20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="24" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
@@ -5498,20 +5606,22 @@
         <v>42</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25" t="str">
+      <c r="G21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="24" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="24"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
@@ -5521,20 +5631,22 @@
         <v>43</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25" t="str">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="24"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -5542,18 +5654,20 @@
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25" t="str">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="24" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="24"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
@@ -5561,18 +5675,20 @@
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25" t="str">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="24"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
@@ -5584,20 +5700,22 @@
         <v>29</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="25" t="str">
+      <c r="G25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="24" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="24"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
@@ -5607,20 +5725,22 @@
         <v>33</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25" t="str">
+      <c r="G26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="24" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="24"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
@@ -5630,20 +5750,22 @@
         <v>42</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
@@ -5653,22 +5775,24 @@
         <v>26</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="n">
@@ -5678,20 +5802,22 @@
         <v>29</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
@@ -5701,20 +5827,22 @@
         <v>33</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25" t="str">
+      <c r="G30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
@@ -5724,20 +5852,22 @@
         <v>37</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
@@ -5747,22 +5877,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="n">
@@ -5772,20 +5904,22 @@
         <v>29</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
@@ -5795,20 +5929,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
@@ -5818,20 +5954,22 @@
         <v>37</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
@@ -5841,22 +5979,24 @@
         <v>26</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -5866,22 +6006,24 @@
         <v>52</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
@@ -5898,64 +6040,64 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
       <c r="L40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="43"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="10"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -5996,10 +6138,10 @@
         <v>16</v>
       </c>
       <c r="H44" s="19"/>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="46"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="17" t="s">
         <v>18</v>
       </c>
@@ -6020,34 +6162,38 @@
         <v>21</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25" t="str">
+      <c r="G45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="24" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25" t="str">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="24" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21"/>
@@ -6058,53 +6204,59 @@
         <v>23</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25" t="str">
+      <c r="G47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="24" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25" t="str">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="I48" s="24" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25" t="str">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="24" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="n">
@@ -6114,22 +6266,24 @@
         <v>26</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25" t="str">
+      <c r="F50" s="28"/>
+      <c r="G50" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="24" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="n">
@@ -6139,22 +6293,24 @@
         <v>29</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25" t="str">
+      <c r="G51" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="24" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21"/>
@@ -6162,22 +6318,24 @@
         <v>26</v>
       </c>
       <c r="C52" s="22"/>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25" t="str">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="24" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="n">
@@ -6187,22 +6345,24 @@
         <v>33</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25" t="str">
+      <c r="G53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="24" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
@@ -6210,22 +6370,24 @@
         <v>26</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25" t="str">
+      <c r="F54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="24" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -6235,22 +6397,24 @@
         <v>37</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25" t="str">
+      <c r="G55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="24" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
@@ -6258,22 +6422,24 @@
         <v>26</v>
       </c>
       <c r="C56" s="22"/>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25" t="str">
+      <c r="G56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="24" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="n">
@@ -6283,22 +6449,24 @@
         <v>41</v>
       </c>
       <c r="C57" s="22"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25" t="str">
+      <c r="G57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="24" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -6306,20 +6474,22 @@
         <v>29</v>
       </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="25" t="str">
+      <c r="G58" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="24" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="24"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
@@ -6329,20 +6499,22 @@
         <v>33</v>
       </c>
       <c r="C59" s="22"/>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="25" t="str">
+      <c r="G59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="24" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="24"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
@@ -6352,20 +6524,22 @@
         <v>42</v>
       </c>
       <c r="C60" s="22"/>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="25" t="str">
+      <c r="G60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="24" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="24"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
@@ -6375,20 +6549,22 @@
         <v>43</v>
       </c>
       <c r="C61" s="22"/>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="25" t="str">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="24" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="24"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
@@ -6396,18 +6572,20 @@
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="31"/>
+      <c r="E62" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="25" t="str">
+      <c r="F62" s="26"/>
+      <c r="G62" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="24" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="24"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
@@ -6415,18 +6593,20 @@
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="31"/>
+      <c r="E63" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="25" t="str">
+      <c r="F63" s="26"/>
+      <c r="G63" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="24" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="24"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
     </row>
@@ -6438,20 +6618,22 @@
         <v>29</v>
       </c>
       <c r="C64" s="22"/>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="25" t="str">
+      <c r="G64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="24" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="24"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
@@ -6461,20 +6643,22 @@
         <v>33</v>
       </c>
       <c r="C65" s="22"/>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="25" t="str">
+      <c r="G65" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="24" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="24"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
@@ -6484,20 +6668,22 @@
         <v>42</v>
       </c>
       <c r="C66" s="22"/>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="15"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="25" t="str">
+      <c r="G66" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="24" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="24"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
@@ -6507,22 +6693,24 @@
         <v>26</v>
       </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25" t="str">
+      <c r="F67" s="28"/>
+      <c r="G67" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="24" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="n">
@@ -6532,20 +6720,22 @@
         <v>29</v>
       </c>
       <c r="C68" s="22"/>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F68" s="15"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="25" t="str">
+      <c r="G68" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="24" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="24"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
@@ -6555,20 +6745,22 @@
         <v>33</v>
       </c>
       <c r="C69" s="22"/>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="25" t="str">
+      <c r="G69" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="24" t="str">
         <f aca="false">IF(G69=E69,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J69" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J69" s="24"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
@@ -6578,20 +6770,22 @@
         <v>37</v>
       </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F70" s="15"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="25" t="str">
+      <c r="G70" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="24" t="str">
         <f aca="false">IF(G70=E70,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J70" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J70" s="24"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
@@ -6601,22 +6795,24 @@
         <v>26</v>
       </c>
       <c r="C71" s="22"/>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="25" t="str">
+      <c r="F71" s="28"/>
+      <c r="G71" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="28"/>
+      <c r="I71" s="24" t="str">
         <f aca="false">IF(G71=E71,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="n">
@@ -6626,20 +6822,22 @@
         <v>29</v>
       </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="25" t="str">
+      <c r="G72" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="24" t="str">
         <f aca="false">IF(G72=E72,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J72" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J72" s="24"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
@@ -6649,20 +6847,22 @@
         <v>33</v>
       </c>
       <c r="C73" s="22"/>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="25" t="str">
+      <c r="G73" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="24" t="str">
         <f aca="false">IF(G73=E73,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J73" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J73" s="24"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
@@ -6672,20 +6872,22 @@
         <v>37</v>
       </c>
       <c r="C74" s="22"/>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="25" t="str">
+      <c r="G74" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="24" t="str">
         <f aca="false">IF(G74=E74,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J74" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J74" s="24"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
@@ -6695,22 +6897,24 @@
         <v>26</v>
       </c>
       <c r="C75" s="22"/>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="25" t="str">
+      <c r="F75" s="32"/>
+      <c r="G75" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="24" t="str">
         <f aca="false">IF(G75=E75,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="n">
@@ -6720,22 +6924,24 @@
         <v>52</v>
       </c>
       <c r="C76" s="22"/>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="25" t="str">
+      <c r="G76" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="24" t="str">
         <f aca="false">IF(G76=E76,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J76" s="24"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="356">
@@ -7114,7 +7320,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7222,10 +7428,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="46"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="17" t="s">
         <v>18</v>
       </c>
@@ -7246,34 +7452,38 @@
         <v>21</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="str">
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="str">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="21"/>
@@ -7284,53 +7494,59 @@
         <v>23</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="str">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="str">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="24" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
@@ -7340,22 +7556,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="str">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="24" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="n">
@@ -7365,22 +7583,24 @@
         <v>29</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
@@ -7388,22 +7608,24 @@
         <v>26</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="str">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="24" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="n">
@@ -7413,22 +7635,24 @@
         <v>33</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="str">
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
@@ -7436,22 +7660,24 @@
         <v>26</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25" t="str">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="24" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
@@ -7461,22 +7687,24 @@
         <v>37</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25" t="str">
+      <c r="G16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24" t="str">
         <f aca="false">IF(G16=E16,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
@@ -7484,22 +7712,24 @@
         <v>26</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="str">
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24" t="str">
         <f aca="false">IF(G17=E17,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
@@ -7509,22 +7739,24 @@
         <v>41</v>
       </c>
       <c r="C18" s="22"/>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="str">
+      <c r="G18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="24" t="str">
         <f aca="false">IF(G18=E18,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
@@ -7532,20 +7764,22 @@
         <v>29</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="25" t="str">
+      <c r="G19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="24" t="str">
         <f aca="false">IF(G19=E19,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J19" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
@@ -7555,20 +7789,22 @@
         <v>33</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="25" t="str">
+      <c r="G20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="24" t="str">
         <f aca="false">IF(G20=E20,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J20" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
@@ -7578,20 +7814,22 @@
         <v>42</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25" t="str">
+      <c r="G21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="24" t="str">
         <f aca="false">IF(G21=E21,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J21" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J21" s="24"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
@@ -7601,20 +7839,22 @@
         <v>43</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25" t="str">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="24" t="str">
         <f aca="false">IF(G22=E22,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J22" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J22" s="24"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -7622,18 +7862,20 @@
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25" t="str">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="24" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="24"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
@@ -7641,18 +7883,20 @@
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25" t="str">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="24"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
@@ -7664,20 +7908,22 @@
         <v>29</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="25" t="str">
+      <c r="G25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="24" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="24"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
@@ -7687,20 +7933,22 @@
         <v>33</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25" t="str">
+      <c r="G26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="24" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="24"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
@@ -7710,20 +7958,22 @@
         <v>42</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="25" t="str">
+      <c r="G27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="24" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="24"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
@@ -7733,22 +7983,24 @@
         <v>26</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25" t="str">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="n">
@@ -7758,20 +8010,22 @@
         <v>29</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25" t="str">
+      <c r="G29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="24" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="24"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
@@ -7781,20 +8035,22 @@
         <v>33</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25" t="str">
+      <c r="G30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="24" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="24"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
@@ -7804,20 +8060,22 @@
         <v>37</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="15"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25" t="str">
+      <c r="G31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="24" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="24"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
@@ -7827,22 +8085,24 @@
         <v>26</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="str">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="24" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="n">
@@ -7852,20 +8112,22 @@
         <v>29</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="25" t="str">
+      <c r="G33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="24" t="str">
         <f aca="false">IF(G33=E33,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J33" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J33" s="24"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
@@ -7875,20 +8137,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="25" t="str">
+      <c r="G34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="24" t="str">
         <f aca="false">IF(G34=E34,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J34" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J34" s="24"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
@@ -7898,20 +8162,22 @@
         <v>37</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="25" t="str">
+      <c r="G35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="24" t="str">
         <f aca="false">IF(G35=E35,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J35" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J35" s="24"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
@@ -7921,22 +8187,24 @@
         <v>26</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25" t="str">
+      <c r="F36" s="32"/>
+      <c r="G36" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="24" t="str">
         <f aca="false">IF(G36=E36,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
@@ -7946,22 +8214,24 @@
         <v>52</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="str">
+      <c r="G37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24" t="str">
         <f aca="false">IF(G37=E37,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
@@ -7978,64 +8248,64 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
       <c r="L40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="43"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="10"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -8076,10 +8346,10 @@
         <v>16</v>
       </c>
       <c r="H44" s="19"/>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="46"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="17" t="s">
         <v>18</v>
       </c>
@@ -8100,34 +8370,38 @@
         <v>21</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25" t="str">
+      <c r="G45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="24" t="str">
         <f aca="false">IF(G45=E45,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25" t="str">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="24" t="str">
         <f aca="false">IF(G46=E46,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" customFormat="false" ht="68.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="21"/>
@@ -8138,53 +8412,59 @@
         <v>23</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25" t="str">
+      <c r="G47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="24" t="str">
         <f aca="false">IF(G47=E47,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25" t="str">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="26"/>
+      <c r="I48" s="24" t="str">
         <f aca="false">IF(G48=E48,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25" t="str">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="26"/>
+      <c r="I49" s="24" t="str">
         <f aca="false">IF(G49=E49,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="n">
@@ -8194,22 +8474,24 @@
         <v>26</v>
       </c>
       <c r="C50" s="22"/>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="25" t="str">
+      <c r="F50" s="28"/>
+      <c r="G50" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="I50" s="24" t="str">
         <f aca="false">IF(G50=E50,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="n">
@@ -8219,22 +8501,24 @@
         <v>29</v>
       </c>
       <c r="C51" s="22"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25" t="str">
+      <c r="G51" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="24" t="str">
         <f aca="false">IF(G51=E51,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="21"/>
@@ -8242,22 +8526,24 @@
         <v>26</v>
       </c>
       <c r="C52" s="22"/>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="25" t="str">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="28"/>
+      <c r="I52" s="24" t="str">
         <f aca="false">IF(G52=E52,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="n">
@@ -8267,22 +8553,24 @@
         <v>33</v>
       </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25" t="str">
+      <c r="G53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="24" t="str">
         <f aca="false">IF(G53=E53,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="21"/>
@@ -8290,22 +8578,24 @@
         <v>26</v>
       </c>
       <c r="C54" s="22"/>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25" t="str">
+      <c r="F54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="24" t="str">
         <f aca="false">IF(G54=E54,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
@@ -8315,22 +8605,24 @@
         <v>37</v>
       </c>
       <c r="C55" s="22"/>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25" t="str">
+      <c r="G55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="24" t="str">
         <f aca="false">IF(G55=E55,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
@@ -8338,22 +8630,24 @@
         <v>26</v>
       </c>
       <c r="C56" s="22"/>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25" t="str">
+      <c r="G56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="24" t="str">
         <f aca="false">IF(G56=E56,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="n">
@@ -8363,22 +8657,24 @@
         <v>41</v>
       </c>
       <c r="C57" s="22"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25" t="str">
+      <c r="G57" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="24" t="str">
         <f aca="false">IF(G57=E57,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="21"/>
@@ -8386,20 +8682,22 @@
         <v>29</v>
       </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="25" t="str">
+      <c r="G58" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="24" t="str">
         <f aca="false">IF(G58=E58,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J58" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J58" s="24"/>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
@@ -8409,20 +8707,22 @@
         <v>33</v>
       </c>
       <c r="C59" s="22"/>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="25" t="str">
+      <c r="G59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="24" t="str">
         <f aca="false">IF(G59=E59,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J59" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J59" s="24"/>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
@@ -8432,20 +8732,22 @@
         <v>42</v>
       </c>
       <c r="C60" s="22"/>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="25" t="str">
+      <c r="G60" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="24" t="str">
         <f aca="false">IF(G60=E60,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J60" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J60" s="24"/>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
@@ -8455,20 +8757,22 @@
         <v>43</v>
       </c>
       <c r="C61" s="22"/>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="25" t="str">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="24" t="str">
         <f aca="false">IF(G61=E61,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J61" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J61" s="24"/>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
@@ -8476,18 +8780,20 @@
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="27" t="s">
+      <c r="D62" s="31"/>
+      <c r="E62" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="25" t="str">
+      <c r="F62" s="26"/>
+      <c r="G62" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="24" t="str">
         <f aca="false">IF(G62=E62,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J62" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J62" s="24"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
@@ -8495,18 +8801,20 @@
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="27" t="s">
+      <c r="D63" s="31"/>
+      <c r="E63" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="25" t="str">
+      <c r="F63" s="26"/>
+      <c r="G63" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="24" t="str">
         <f aca="false">IF(G63=E63,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J63" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J63" s="24"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
     </row>
@@ -8518,20 +8826,22 @@
         <v>29</v>
       </c>
       <c r="C64" s="22"/>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="25" t="str">
+      <c r="G64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="24" t="str">
         <f aca="false">IF(G64=E64,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J64" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J64" s="24"/>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
@@ -8541,20 +8851,22 @@
         <v>33</v>
       </c>
       <c r="C65" s="22"/>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="29" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="25" t="str">
+      <c r="G65" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="24" t="str">
         <f aca="false">IF(G65=E65,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J65" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J65" s="24"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
@@ -8564,20 +8876,22 @@
         <v>42</v>
       </c>
       <c r="C66" s="22"/>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="15"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="25" t="str">
+      <c r="G66" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="24" t="str">
         <f aca="false">IF(G66=E66,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J66" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J66" s="24"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
@@ -8587,22 +8901,24 @@
         <v>26</v>
       </c>
       <c r="C67" s="22"/>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25" t="str">
+      <c r="F67" s="28"/>
+      <c r="G67" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="24" t="str">
         <f aca="false">IF(G67=E67,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="n">
@@ -8612,20 +8928,22 @@
         <v>29</v>
       </c>
       <c r="C68" s="22"/>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F68" s="15"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="25" t="str">
+      <c r="G68" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="24" t="str">
         <f aca="false">IF(G68=E68,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J68" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J68" s="24"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
@@ -8635,20 +8953,22 @@
         <v>33</v>
       </c>
       <c r="C69" s="22"/>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="29" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="25" t="str">
+      <c r="G69" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="24" t="str">
         <f aca="false">IF(G69=E69,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J69" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J69" s="24"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
@@ -8658,20 +8978,22 @@
         <v>37</v>
       </c>
       <c r="C70" s="22"/>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F70" s="15"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="25" t="str">
+      <c r="G70" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="24" t="str">
         <f aca="false">IF(G70=E70,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J70" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J70" s="24"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
@@ -8681,22 +9003,24 @@
         <v>26</v>
       </c>
       <c r="C71" s="22"/>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="25" t="str">
+      <c r="F71" s="28"/>
+      <c r="G71" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H71" s="28"/>
+      <c r="I71" s="24" t="str">
         <f aca="false">IF(G71=E71,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="n">
@@ -8706,20 +9030,22 @@
         <v>29</v>
       </c>
       <c r="C72" s="22"/>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="25" t="str">
+      <c r="G72" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="24" t="str">
         <f aca="false">IF(G72=E72,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J72" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J72" s="24"/>
       <c r="K72" s="22"/>
       <c r="L72" s="22"/>
     </row>
@@ -8729,20 +9055,22 @@
         <v>33</v>
       </c>
       <c r="C73" s="22"/>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="25" t="str">
+      <c r="G73" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="24" t="str">
         <f aca="false">IF(G73=E73,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J73" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J73" s="24"/>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
@@ -8752,20 +9080,22 @@
         <v>37</v>
       </c>
       <c r="C74" s="22"/>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="25" t="str">
+      <c r="G74" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="24" t="str">
         <f aca="false">IF(G74=E74,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J74" s="25"/>
+        <v>Pass</v>
+      </c>
+      <c r="J74" s="24"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
@@ -8775,22 +9105,24 @@
         <v>26</v>
       </c>
       <c r="C75" s="22"/>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="25" t="str">
+      <c r="F75" s="32"/>
+      <c r="G75" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="24" t="str">
         <f aca="false">IF(G75=E75,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J75" s="24"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="n">
@@ -8800,22 +9132,24 @@
         <v>52</v>
       </c>
       <c r="C76" s="22"/>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="25" t="str">
+      <c r="G76" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="24" t="str">
         <f aca="false">IF(G76=E76,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
+        <v>Pass</v>
+      </c>
+      <c r="J76" s="24"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="356">
